--- a/SampleInputFiles/sample_Approved_sweden.xlsx
+++ b/SampleInputFiles/sample_Approved_sweden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\MyEngineering\golocalrefactor\SampleInputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737B9C0-13E5-4F4F-BF70-16E939EA0B94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11947C-5F1E-43EA-8639-E29423F1AAA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3733" yWindow="0" windowWidth="24973" windowHeight="10153" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4667" yWindow="0" windowWidth="24973" windowHeight="10153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -327,64 +327,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,178 +350,83 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,14 +711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -881,35 +734,35 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="43" x14ac:dyDescent="0.5">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -949,54 +802,54 @@
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>40897</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>40897</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>40897</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>40897</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>40897</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>41204</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>41204</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>41204</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>40897</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1017,48 +870,48 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1071,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA816A8A-C50A-46C0-B933-059E5986472F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1084,131 +937,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="13">
         <v>42370</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>42370</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>42370</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>42370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>42006</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>42006</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>42006</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
